--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Planilla gestión de riesgos.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Planilla gestión de riesgos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_0F748088276ED6763601B621A8D84AE36823142C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9EDA746-712D-47AC-A0DA-152EDC18D67B}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_0F748088276ED6763601B621A8D84AE36823142C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24BC20DC-C5C0-473D-905A-86CC74E2EFC9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13905" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Riesgos del proyecto</t>
   </si>
@@ -72,33 +72,15 @@
     <t>Nicolás Friz</t>
   </si>
   <si>
-    <t>Al momento de crear el proyecto de angular por incompatibilidad de versiones con bibliotecas y nodejs dio errores</t>
-  </si>
-  <si>
     <t>Cerrado</t>
   </si>
   <si>
-    <t>Generar la documentacion necesaria y usar versiones definidas por los devs para que haya compatibilidad entre las herramientas a usar.</t>
-  </si>
-  <si>
     <t>El proyecto se levanto y desarrollo exitosamente.</t>
   </si>
   <si>
     <t>Falta de claridad en los requerimientos</t>
   </si>
   <si>
-    <t>Requerimientos vagos y mal definidos que causan sobretrabajo</t>
-  </si>
-  <si>
-    <t>Bastían Olivares</t>
-  </si>
-  <si>
-    <t>reuniones periodicas con el PO para aclarar los requisitos y actualizar la documentacion en el backlog</t>
-  </si>
-  <si>
-    <t>Menos cionfusión y más claridad en el trabajo y otimizacion del flujo de trabajo</t>
-  </si>
-  <si>
     <t>Problemas en modelamiento de base de datos</t>
   </si>
   <si>
@@ -109,13 +91,136 @@
   </si>
   <si>
     <t xml:space="preserve">Corregir modelo de datos y </t>
+  </si>
+  <si>
+    <t>Al momento de crear el proyecto de angular por incompatibilidad de versiones con bibliotecas y NodeJS dio errores</t>
+  </si>
+  <si>
+    <t>Generar la documentación necesaria y usar versiones definidas por los devs para que haya compatibilidad entre las herramientas a usar.</t>
+  </si>
+  <si>
+    <t>Requerimientos vagos y mal definidos que causan sobre trabajo</t>
+  </si>
+  <si>
+    <t>Bastián Olivares</t>
+  </si>
+  <si>
+    <t>reuniones periódicas con el PO para aclarar los requisitos y actualizar la documentación en el backlog</t>
+  </si>
+  <si>
+    <t>Menos confusión y más claridad en el trabajo y optimización del flujo de trabajo</t>
+  </si>
+  <si>
+    <t>Dificultad en la configuración inicial</t>
+  </si>
+  <si>
+    <t>Problemas para configurar las herramientas de desarrollo (Angular, Node.js)</t>
+  </si>
+  <si>
+    <t>Seguir documentación oficial, realizar pruebas en entornos locales antes de desplegar en producción.</t>
+  </si>
+  <si>
+    <t>Configuración completada con éxito.</t>
+  </si>
+  <si>
+    <t>Retraso en la definición de roles</t>
+  </si>
+  <si>
+    <t>Matías Bello</t>
+  </si>
+  <si>
+    <t>La asignación de roles y responsabilidades no fue clara al inicio del proyecto.</t>
+  </si>
+  <si>
+    <t>Reunión inicial para definir claramente los roles de cada miembro del equipo desde el principio.</t>
+  </si>
+  <si>
+    <t>Los roles fueron definidos y documentados.</t>
+  </si>
+  <si>
+    <t>Falta de comunicación en el equipo</t>
+  </si>
+  <si>
+    <t>La falta de comunicación entre miembros del equipo causa malentendidos.</t>
+  </si>
+  <si>
+    <t>Programar reuniones periódicas y asegurar que los canales de comunicación estén siempre abiertos (Slack, email).</t>
+  </si>
+  <si>
+    <t>Mejor comunicación y coordinación entre el equipo.</t>
+  </si>
+  <si>
+    <t>Incapacidad para cumplir cronograma</t>
+  </si>
+  <si>
+    <t>El equipo no sigue los plazos estipulados para las entregas.</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Implementar la metodología SCRUM con sprints cortos y objetivos claros para monitorear el progreso.</t>
+  </si>
+  <si>
+    <t>Se han realizado ajustes en el cronograma.</t>
+  </si>
+  <si>
+    <t>Falta de experiencia con nuevas tecnologías</t>
+  </si>
+  <si>
+    <t>Los miembros del equipo no están familiarizados con alguna tecnología clave (Tailwind CSS, Angular 18).</t>
+  </si>
+  <si>
+    <t>Planificar tiempo adicional de aprendizaje y experimentación antes de implementar las nuevas tecnologías.</t>
+  </si>
+  <si>
+    <t>Se adquirió experiencia y conocimientos adecuados.</t>
+  </si>
+  <si>
+    <t>Sobrecarga de trabajo en el equipo</t>
+  </si>
+  <si>
+    <t>Los desarrolladores se ven sobrecargados por múltiples tareas simultáneas.</t>
+  </si>
+  <si>
+    <t>Distribuir las tareas de manera más equitativa, priorizar actividades y evaluar la necesidad de recursos adicionales.</t>
+  </si>
+  <si>
+    <t>Se están ajustando las asignaciones de tareas.</t>
+  </si>
+  <si>
+    <t>Errores en la integración de componentes</t>
+  </si>
+  <si>
+    <t>Problemas al integrar los diferentes módulos y componentes del sistema.</t>
+  </si>
+  <si>
+    <t>Realizar integraciones continuas y pruebas frecuentes para detectar problemas lo antes posible.</t>
+  </si>
+  <si>
+    <t>Integración en curso.</t>
+  </si>
+  <si>
+    <t>Retraso en la entrega de tareas individuales</t>
+  </si>
+  <si>
+    <t>Los miembros del equipo no cumplen con las fechas límites de tareas individuales.</t>
+  </si>
+  <si>
+    <t>Monitorear el progreso diariamente mediante un tablero kanban, y ajustar los plazos según necesidades.</t>
+  </si>
+  <si>
+    <t>En proceso de ajuste de plazos.</t>
+  </si>
+  <si>
+    <t>Creación y estructuracion de la base de datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -219,11 +324,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -238,6 +371,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,26 +734,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="10" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="10" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -624,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24.75" customHeight="1">
+    <row r="3" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -635,200 +796,360 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45545</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45547</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="14">
+        <v>45550</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45552</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="E5" s="15">
+        <v>45580</v>
+      </c>
+      <c r="F5" s="15">
+        <v>45582</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="J5" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="17">
+        <v>45545</v>
+      </c>
+      <c r="F6" s="17">
+        <v>45547</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17">
+        <v>45545</v>
+      </c>
+      <c r="F7" s="17">
+        <v>45550</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A9" s="1">
+      <c r="D8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="17">
+        <v>45550</v>
+      </c>
+      <c r="F8" s="17">
+        <v>45565</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A10" s="1">
+      <c r="B9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="17">
+        <v>45550</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45595</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A11" s="1">
+      <c r="B10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="17">
+        <v>45547</v>
+      </c>
+      <c r="F10" s="17">
+        <v>45565</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A12" s="1">
+      <c r="B11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="17">
+        <v>45560</v>
+      </c>
+      <c r="F11" s="17">
+        <v>45595</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.75" customHeight="1">
+      <c r="B12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="17">
+        <v>45566</v>
+      </c>
+      <c r="F12" s="17">
+        <v>45575</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="17">
+        <v>45570</v>
+      </c>
+      <c r="F13" s="17">
+        <v>45585</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -840,7 +1161,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="24.75" customHeight="1">
+    <row r="16" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -852,7 +1173,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="24.75" customHeight="1">
+    <row r="17" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -864,7 +1185,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="24.75" customHeight="1">
+    <row r="18" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -876,30 +1197,6 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
